--- a/refs/heads/master/StructureDefinition-ObservationIniciarCuidadorLE.xlsx
+++ b/refs/heads/master/StructureDefinition-ObservationIniciarCuidadorLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-29T18:01:33+00:00</t>
+    <t>2024-02-29T20:20:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-ObservationIniciarCuidadorLE.xlsx
+++ b/refs/heads/master/StructureDefinition-ObservationIniciarCuidadorLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-29T20:20:18+00:00</t>
+    <t>2024-03-01T15:50:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-ObservationIniciarCuidadorLE.xlsx
+++ b/refs/heads/master/StructureDefinition-ObservationIniciarCuidadorLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-01T15:50:04+00:00</t>
+    <t>2024-03-04T15:00:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-ObservationIniciarCuidadorLE.xlsx
+++ b/refs/heads/master/StructureDefinition-ObservationIniciarCuidadorLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-04T15:00:39+00:00</t>
+    <t>2024-03-05T20:46:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-ObservationIniciarCuidadorLE.xlsx
+++ b/refs/heads/master/StructureDefinition-ObservationIniciarCuidadorLE.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.7</t>
+    <t>0.1.6</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-05T20:46:11+00:00</t>
+    <t>2024-03-06T13:55:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-ObservationIniciarCuidadorLE.xlsx
+++ b/refs/heads/master/StructureDefinition-ObservationIniciarCuidadorLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-06T13:55:04+00:00</t>
+    <t>2024-03-06T14:38:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-ObservationIniciarCuidadorLE.xlsx
+++ b/refs/heads/master/StructureDefinition-ObservationIniciarCuidadorLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-06T14:38:01+00:00</t>
+    <t>2024-03-18T16:21:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -650,7 +650,7 @@
 </t>
   </si>
   <si>
-    <t>Tipo de observación, por defecto se usará como valor fijo el código de loinc que explicita si un paciente necesita cuidador</t>
+    <t>Tipo de observación, por defecto se usará como valor fijo el código de loinc que explicita si un paciente está a cargo de los cuidados de otra persona</t>
   </si>
   <si>
     <t>Describes what was observed. Sometimes this is called the observation "name".</t>

--- a/refs/heads/master/StructureDefinition-ObservationIniciarCuidadorLE.xlsx
+++ b/refs/heads/master/StructureDefinition-ObservationIniciarCuidadorLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-18T16:21:14+00:00</t>
+    <t>2024-03-18T17:14:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-ObservationIniciarCuidadorLE.xlsx
+++ b/refs/heads/master/StructureDefinition-ObservationIniciarCuidadorLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-18T17:14:02+00:00</t>
+    <t>2024-03-19T16:07:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-ObservationIniciarCuidadorLE.xlsx
+++ b/refs/heads/master/StructureDefinition-ObservationIniciarCuidadorLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-19T16:07:43+00:00</t>
+    <t>2024-03-19T17:49:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-ObservationIniciarCuidadorLE.xlsx
+++ b/refs/heads/master/StructureDefinition-ObservationIniciarCuidadorLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-19T17:49:48+00:00</t>
+    <t>2024-04-04T12:35:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-ObservationIniciarCuidadorLE.xlsx
+++ b/refs/heads/master/StructureDefinition-ObservationIniciarCuidadorLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-04T12:35:15+00:00</t>
+    <t>2024-04-29T22:09:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-ObservationIniciarCuidadorLE.xlsx
+++ b/refs/heads/master/StructureDefinition-ObservationIniciarCuidadorLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-29T22:09:51+00:00</t>
+    <t>2024-04-30T11:40:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-ObservationIniciarCuidadorLE.xlsx
+++ b/refs/heads/master/StructureDefinition-ObservationIniciarCuidadorLE.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$62</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$63</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2416" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2452" uniqueCount="520">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.6</t>
+    <t>0.9.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-30T11:40:38+00:00</t>
+    <t>2024-05-30T19:35:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Observation Iniciar, para describir si un paciente necesita cuidador</t>
+    <t>Indica que el paciente es cuidador, es decir es responsable del cuidado de otra persona</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -444,33 +444,57 @@
     <t>Observation.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Observation.extension:EsCuidador</t>
+  </si>
+  <si>
+    <t>EsCuidador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/ExtBoolEsCuidador}
+</t>
+  </si>
+  <si>
+    <t>Es cuidador? true | false</t>
+  </si>
+  <si>
+    <t>ExtBool EsCuidador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>Observation.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Observation.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -478,6 +502,9 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -573,7 +600,7 @@
     <t>Observation.status</t>
   </si>
   <si>
-    <t xml:space="preserve">Estado de la obseravación, por defecto 'final' </t>
+    <t xml:space="preserve">Estado de la observación, por defecto 'final' </t>
   </si>
   <si>
     <t>The status of the result value.</t>
@@ -711,17 +738,13 @@
     <t>Observation.code.extension</t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
     <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
   </si>
   <si>
     <t>Element.extension</t>
@@ -1935,7 +1958,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP62"/>
+  <dimension ref="A1:AP63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2962,11 +2985,11 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>138</v>
+        <v>82</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>81</v>
@@ -2981,17 +3004,15 @@
         <v>82</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="M9" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>142</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>82</v>
@@ -3028,16 +3049,14 @@
         <v>82</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>82</v>
+        <v>142</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>143</v>
@@ -3064,7 +3083,7 @@
         <v>82</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>136</v>
+        <v>82</v>
       </c>
       <c r="AO9" t="s" s="2">
         <v>82</v>
@@ -3078,43 +3097,41 @@
         <v>145</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>138</v>
+        <v>82</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>82</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>148</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>82</v>
       </c>
@@ -3162,7 +3179,7 @@
         <v>82</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>80</v>
@@ -3171,7 +3188,7 @@
         <v>81</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>82</v>
+        <v>150</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>144</v>
@@ -3186,7 +3203,7 @@
         <v>82</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>136</v>
+        <v>82</v>
       </c>
       <c r="AO10" t="s" s="2">
         <v>82</v>
@@ -3197,14 +3214,14 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>82</v>
+        <v>152</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -3217,23 +3234,25 @@
         <v>82</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="N11" s="2"/>
+        <v>154</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="O11" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>82</v>
@@ -3282,7 +3301,7 @@
         <v>82</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>80</v>
@@ -3294,22 +3313,22 @@
         <v>82</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>155</v>
+        <v>82</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>156</v>
+        <v>82</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>158</v>
+        <v>82</v>
       </c>
       <c r="AP11" t="s" s="2">
         <v>82</v>
@@ -3317,14 +3336,14 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>160</v>
+        <v>82</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -3343,17 +3362,17 @@
         <v>94</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="M12" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>82</v>
@@ -3402,7 +3421,7 @@
         <v>82</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>80</v>
@@ -3417,19 +3436,19 @@
         <v>105</v>
       </c>
       <c r="AK12" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AL12" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM12" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AN12" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="AL12" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM12" t="s" s="2">
+      <c r="AO12" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="AN12" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AO12" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AP12" t="s" s="2">
         <v>82</v>
@@ -3437,14 +3456,14 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -3463,18 +3482,18 @@
         <v>94</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" s="2"/>
+      <c r="O13" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="N13" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>82</v>
       </c>
@@ -3522,7 +3541,7 @@
         <v>82</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>80</v>
@@ -3537,16 +3556,16 @@
         <v>105</v>
       </c>
       <c r="AK13" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AL13" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM13" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="AL13" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM13" t="s" s="2">
+      <c r="AN13" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="AN13" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>82</v>
@@ -3557,46 +3576,44 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>82</v>
+        <v>177</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>94</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>113</v>
+        <v>178</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="O14" t="s" s="2">
         <v>181</v>
       </c>
+      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>82</v>
       </c>
@@ -3605,7 +3622,7 @@
         <v>82</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>182</v>
+        <v>82</v>
       </c>
       <c r="T14" t="s" s="2">
         <v>82</v>
@@ -3620,13 +3637,13 @@
         <v>82</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>183</v>
+        <v>82</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>184</v>
+        <v>82</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>185</v>
+        <v>82</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>82</v>
@@ -3644,13 +3661,13 @@
         <v>82</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>82</v>
@@ -3659,19 +3676,19 @@
         <v>105</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>187</v>
+        <v>82</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>190</v>
+        <v>82</v>
       </c>
       <c r="AP14" t="s" s="2">
         <v>82</v>
@@ -3679,10 +3696,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3690,34 +3707,34 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>192</v>
+        <v>113</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>82</v>
@@ -3727,7 +3744,7 @@
         <v>82</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>82</v>
+        <v>190</v>
       </c>
       <c r="T15" t="s" s="2">
         <v>82</v>
@@ -3742,13 +3759,13 @@
         <v>82</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>117</v>
+        <v>191</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>82</v>
@@ -3766,13 +3783,13 @@
         <v>82</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>82</v>
@@ -3781,19 +3798,19 @@
         <v>105</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>82</v>
+        <v>194</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>82</v>
+        <v>195</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>82</v>
+        <v>196</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>82</v>
@@ -3801,45 +3818,45 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>202</v>
+        <v>82</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="N16" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="O16" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>82</v>
@@ -3864,13 +3881,13 @@
         <v>82</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>207</v>
+        <v>117</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>82</v>
@@ -3888,13 +3905,13 @@
         <v>82</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>82</v>
@@ -3903,62 +3920,66 @@
         <v>105</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>210</v>
+        <v>82</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>211</v>
+        <v>82</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>212</v>
+        <v>82</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="AP16" t="s" s="2">
-        <v>215</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>82</v>
+        <v>210</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>93</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="O17" t="s" s="2">
+        <v>214</v>
+      </c>
       <c r="P17" t="s" s="2">
         <v>82</v>
       </c>
@@ -3982,13 +4003,13 @@
         <v>82</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>82</v>
+        <v>215</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>82</v>
+        <v>216</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>82</v>
+        <v>217</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>82</v>
@@ -4006,10 +4027,10 @@
         <v>82</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>93</v>
@@ -4018,44 +4039,44 @@
         <v>82</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>82</v>
+        <v>218</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>82</v>
+        <v>219</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>82</v>
+        <v>220</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>221</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>82</v>
+        <v>222</v>
       </c>
       <c r="AP17" t="s" s="2">
-        <v>82</v>
+        <v>223</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>138</v>
+        <v>82</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>82</v>
@@ -4067,17 +4088,15 @@
         <v>82</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>139</v>
+        <v>225</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>140</v>
+        <v>226</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>82</v>
@@ -4114,31 +4133,31 @@
         <v>82</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>224</v>
+        <v>82</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>225</v>
+        <v>82</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>226</v>
+        <v>82</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>82</v>
@@ -4150,7 +4169,7 @@
         <v>82</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>82</v>
@@ -4161,14 +4180,14 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>82</v>
+        <v>152</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -4184,23 +4203,21 @@
         <v>82</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>229</v>
+        <v>138</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>233</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>82</v>
       </c>
@@ -4236,16 +4253,16 @@
         <v>82</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>82</v>
+        <v>233</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>82</v>
+        <v>142</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>234</v>
@@ -4260,7 +4277,7 @@
         <v>82</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>82</v>
@@ -4269,10 +4286,10 @@
         <v>82</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>235</v>
+        <v>82</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>82</v>
@@ -4283,10 +4300,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4297,7 +4314,7 @@
         <v>80</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>82</v>
@@ -4306,19 +4323,23 @@
         <v>82</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="O20" t="s" s="2">
+        <v>240</v>
+      </c>
       <c r="P20" t="s" s="2">
         <v>82</v>
       </c>
@@ -4366,19 +4387,19 @@
         <v>82</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>82</v>
@@ -4387,10 +4408,10 @@
         <v>82</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>82</v>
+        <v>242</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>82</v>
@@ -4401,21 +4422,21 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>138</v>
+        <v>82</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>82</v>
@@ -4427,17 +4448,15 @@
         <v>82</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>139</v>
+        <v>225</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>140</v>
+        <v>226</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>82</v>
@@ -4474,31 +4493,31 @@
         <v>82</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>224</v>
+        <v>82</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>225</v>
+        <v>82</v>
       </c>
       <c r="AD21" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>226</v>
+        <v>82</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>82</v>
@@ -4510,7 +4529,7 @@
         <v>82</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>82</v>
@@ -4521,21 +4540,21 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>82</v>
+        <v>152</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>82</v>
@@ -4544,23 +4563,21 @@
         <v>82</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>107</v>
+        <v>138</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>243</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>82</v>
       </c>
@@ -4569,7 +4586,7 @@
         <v>82</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>244</v>
+        <v>82</v>
       </c>
       <c r="T22" t="s" s="2">
         <v>82</v>
@@ -4596,31 +4613,31 @@
         <v>82</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>82</v>
+        <v>233</v>
       </c>
       <c r="AD22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>82</v>
+        <v>142</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>82</v>
@@ -4629,10 +4646,10 @@
         <v>82</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>246</v>
+        <v>82</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>82</v>
@@ -4643,10 +4660,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4669,18 +4686,20 @@
         <v>94</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>217</v>
+        <v>107</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="N23" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="O23" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="N23" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>82</v>
       </c>
@@ -4689,7 +4708,7 @@
         <v>82</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>82</v>
+        <v>251</v>
       </c>
       <c r="T23" t="s" s="2">
         <v>82</v>
@@ -4789,7 +4808,7 @@
         <v>94</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>113</v>
+        <v>225</v>
       </c>
       <c r="L24" t="s" s="2">
         <v>256</v>
@@ -4797,10 +4816,10 @@
       <c r="M24" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="N24" s="2"/>
-      <c r="O24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>258</v>
       </c>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>82</v>
       </c>
@@ -4809,46 +4828,46 @@
         <v>82</v>
       </c>
       <c r="S24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF24" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="T24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -4869,10 +4888,10 @@
         <v>82</v>
       </c>
       <c r="AM24" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AN24" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>82</v>
@@ -4883,10 +4902,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4909,17 +4928,17 @@
         <v>94</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>217</v>
+        <v>113</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>82</v>
@@ -4929,7 +4948,7 @@
         <v>82</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>82</v>
+        <v>266</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>82</v>
@@ -5029,19 +5048,17 @@
         <v>94</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" s="2"/>
+      <c r="O26" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>82</v>
@@ -5090,7 +5107,7 @@
         <v>82</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -5111,10 +5128,10 @@
         <v>82</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>82</v>
@@ -5125,10 +5142,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5151,19 +5168,19 @@
         <v>94</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>217</v>
+        <v>278</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="N27" t="s" s="2">
+      <c r="O27" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>82</v>
@@ -5212,7 +5229,7 @@
         <v>82</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5233,10 +5250,10 @@
         <v>82</v>
       </c>
       <c r="AM27" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AN27" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>82</v>
@@ -5247,10 +5264,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5258,13 +5275,13 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>93</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>82</v>
@@ -5273,19 +5290,19 @@
         <v>94</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="O28" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>82</v>
@@ -5334,7 +5351,7 @@
         <v>82</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
@@ -5349,19 +5366,19 @@
         <v>105</v>
       </c>
       <c r="AK28" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM28" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AN28" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="AL28" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>295</v>
-      </c>
       <c r="AO28" t="s" s="2">
-        <v>296</v>
+        <v>82</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>82</v>
@@ -5369,10 +5386,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5380,13 +5397,13 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>82</v>
@@ -5395,18 +5412,20 @@
         <v>94</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="N29" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="O29" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="M29" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>82</v>
       </c>
@@ -5454,13 +5473,13 @@
         <v>82</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>82</v>
@@ -5469,19 +5488,19 @@
         <v>105</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>82</v>
+        <v>300</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>212</v>
+        <v>301</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>302</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="AP29" t="s" s="2">
         <v>82</v>
@@ -5489,21 +5508,21 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>304</v>
+        <v>82</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>82</v>
@@ -5526,9 +5545,7 @@
       <c r="N30" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="O30" t="s" s="2">
-        <v>309</v>
-      </c>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>82</v>
       </c>
@@ -5576,13 +5593,13 @@
         <v>82</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>82</v>
@@ -5591,19 +5608,19 @@
         <v>105</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>310</v>
+        <v>82</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>311</v>
+        <v>220</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="AP30" t="s" s="2">
         <v>82</v>
@@ -5611,14 +5628,14 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5637,19 +5654,19 @@
         <v>94</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="O31" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>82</v>
@@ -5698,7 +5715,7 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5713,19 +5730,19 @@
         <v>105</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="AP31" t="s" s="2">
         <v>82</v>
@@ -5733,14 +5750,14 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>82</v>
+        <v>322</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5759,18 +5776,20 @@
         <v>94</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="N32" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="O32" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="M32" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>82</v>
       </c>
@@ -5818,7 +5837,7 @@
         <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -5833,19 +5852,19 @@
         <v>105</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>82</v>
+        <v>328</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM32" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AN32" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="AN32" t="s" s="2">
+      <c r="AO32" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="AO32" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="AP32" t="s" s="2">
         <v>82</v>
@@ -5853,10 +5872,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5867,7 +5886,7 @@
         <v>80</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>82</v>
@@ -5879,18 +5898,18 @@
         <v>94</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="N33" s="2"/>
-      <c r="O33" t="s" s="2">
-        <v>337</v>
-      </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>82</v>
       </c>
@@ -5938,13 +5957,13 @@
         <v>82</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>82</v>
@@ -5953,19 +5972,19 @@
         <v>105</v>
       </c>
       <c r="AK33" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM33" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AN33" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="AL33" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM33" t="s" s="2">
+      <c r="AO33" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="AN33" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="AO33" t="s" s="2">
-        <v>341</v>
       </c>
       <c r="AP33" t="s" s="2">
         <v>82</v>
@@ -5973,10 +5992,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5987,7 +6006,7 @@
         <v>80</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>82</v>
@@ -5999,19 +6018,17 @@
         <v>94</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="N34" s="2"/>
+      <c r="O34" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>82</v>
@@ -6060,45 +6077,45 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>348</v>
+        <v>82</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>105</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>82</v>
+        <v>345</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>349</v>
+        <v>82</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>82</v>
+        <v>348</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>352</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6118,22 +6135,22 @@
         <v>82</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>192</v>
+        <v>350</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="O35" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>82</v>
@@ -6158,13 +6175,13 @@
         <v>82</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>358</v>
+        <v>82</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>359</v>
+        <v>82</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>360</v>
+        <v>82</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>82</v>
@@ -6182,7 +6199,7 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6191,7 +6208,7 @@
         <v>93</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>105</v>
@@ -6200,38 +6217,38 @@
         <v>82</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>82</v>
+        <v>356</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>136</v>
+        <v>357</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP35" t="s" s="2">
-        <v>82</v>
+        <v>359</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>364</v>
+        <v>82</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>82</v>
@@ -6243,19 +6260,19 @@
         <v>82</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>82</v>
@@ -6280,13 +6297,13 @@
         <v>82</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>82</v>
@@ -6304,16 +6321,16 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>82</v>
+        <v>368</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>105</v>
@@ -6322,31 +6339,31 @@
         <v>82</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>371</v>
+        <v>82</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>372</v>
+        <v>136</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>374</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>82</v>
+        <v>371</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -6365,19 +6382,19 @@
         <v>82</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>376</v>
+        <v>200</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>82</v>
@@ -6402,13 +6419,13 @@
         <v>82</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>82</v>
+        <v>365</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>82</v>
+        <v>376</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>82</v>
+        <v>377</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>82</v>
@@ -6426,7 +6443,7 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6444,27 +6461,27 @@
         <v>82</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>82</v>
+        <v>378</v>
       </c>
       <c r="AM37" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AN37" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AO37" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP37" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="AO37" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP37" t="s" s="2">
-        <v>82</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6475,7 +6492,7 @@
         <v>80</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>82</v>
@@ -6487,7 +6504,7 @@
         <v>82</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>192</v>
+        <v>383</v>
       </c>
       <c r="L38" t="s" s="2">
         <v>384</v>
@@ -6498,7 +6515,9 @@
       <c r="N38" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="O38" s="2"/>
+      <c r="O38" t="s" s="2">
+        <v>387</v>
+      </c>
       <c r="P38" t="s" s="2">
         <v>82</v>
       </c>
@@ -6522,13 +6541,13 @@
         <v>82</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>207</v>
+        <v>82</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>387</v>
+        <v>82</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>388</v>
+        <v>82</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>82</v>
@@ -6546,13 +6565,13 @@
         <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>82</v>
@@ -6564,27 +6583,27 @@
         <v>82</v>
       </c>
       <c r="AL38" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM38" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AN38" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="AM38" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>391</v>
-      </c>
       <c r="AO38" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP38" t="s" s="2">
-        <v>392</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6607,20 +6626,18 @@
         <v>82</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>397</v>
-      </c>
+        <v>393</v>
+      </c>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>82</v>
       </c>
@@ -6644,13 +6661,13 @@
         <v>82</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>82</v>
@@ -6668,7 +6685,7 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6686,27 +6703,27 @@
         <v>82</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>82</v>
+        <v>396</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP39" t="s" s="2">
-        <v>82</v>
+        <v>399</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6729,18 +6746,20 @@
         <v>82</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="N40" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="O40" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="M40" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>82</v>
       </c>
@@ -6764,13 +6783,13 @@
         <v>82</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>82</v>
+        <v>215</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>82</v>
+        <v>405</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>82</v>
+        <v>406</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>82</v>
@@ -6788,7 +6807,7 @@
         <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6806,27 +6825,27 @@
         <v>82</v>
       </c>
       <c r="AL40" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM40" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="AM40" t="s" s="2">
+      <c r="AN40" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="AN40" t="s" s="2">
-        <v>409</v>
-      </c>
       <c r="AO40" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP40" t="s" s="2">
-        <v>410</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6849,16 +6868,16 @@
         <v>82</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6908,7 +6927,7 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -6926,27 +6945,27 @@
         <v>82</v>
       </c>
       <c r="AL41" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AN41" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="AM41" t="s" s="2">
+      <c r="AO41" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP41" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="AO41" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP41" t="s" s="2">
-        <v>419</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6957,7 +6976,7 @@
         <v>80</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>82</v>
@@ -6969,20 +6988,18 @@
         <v>82</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="M42" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>425</v>
-      </c>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>82</v>
       </c>
@@ -7030,45 +7047,45 @@
         <v>82</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ42" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="AM42" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AN42" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AO42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP42" t="s" s="2">
         <v>426</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="AO42" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP42" t="s" s="2">
-        <v>82</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7079,7 +7096,7 @@
         <v>80</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>82</v>
@@ -7091,16 +7108,20 @@
         <v>82</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>217</v>
+        <v>428</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>218</v>
+        <v>429</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
+        <v>430</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>432</v>
+      </c>
       <c r="P43" t="s" s="2">
         <v>82</v>
       </c>
@@ -7148,19 +7169,19 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>220</v>
+        <v>427</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>82</v>
+        <v>433</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>82</v>
@@ -7169,10 +7190,10 @@
         <v>82</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>82</v>
+        <v>434</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>221</v>
+        <v>435</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>82</v>
@@ -7183,21 +7204,21 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>138</v>
+        <v>82</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>82</v>
@@ -7209,17 +7230,15 @@
         <v>82</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>139</v>
+        <v>225</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>140</v>
+        <v>226</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>82</v>
@@ -7268,19 +7287,19 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>82</v>
@@ -7292,7 +7311,7 @@
         <v>82</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>82</v>
@@ -7303,14 +7322,14 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>432</v>
+        <v>152</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -7323,26 +7342,24 @@
         <v>82</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>433</v>
+        <v>231</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>434</v>
+        <v>232</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>148</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>82</v>
       </c>
@@ -7390,7 +7407,7 @@
         <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>435</v>
+        <v>234</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7414,7 +7431,7 @@
         <v>82</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>136</v>
+        <v>229</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>82</v>
@@ -7425,42 +7442,46 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>82</v>
+        <v>439</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>437</v>
+        <v>138</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
+        <v>441</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="P46" t="s" s="2">
         <v>82</v>
       </c>
@@ -7508,19 +7529,19 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>440</v>
+        <v>82</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>82</v>
@@ -7529,10 +7550,10 @@
         <v>82</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>441</v>
+        <v>82</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>442</v>
+        <v>136</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>82</v>
@@ -7569,13 +7590,13 @@
         <v>82</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7635,7 +7656,7 @@
         <v>93</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>105</v>
@@ -7647,10 +7668,10 @@
         <v>82</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>82</v>
@@ -7661,10 +7682,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7687,20 +7708,16 @@
         <v>82</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>192</v>
+        <v>444</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>451</v>
-      </c>
+        <v>452</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>82</v>
       </c>
@@ -7724,13 +7741,13 @@
         <v>82</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>452</v>
+        <v>82</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>453</v>
+        <v>82</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>82</v>
@@ -7748,7 +7765,7 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7757,7 +7774,7 @@
         <v>93</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>82</v>
+        <v>447</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>105</v>
@@ -7766,13 +7783,13 @@
         <v>82</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>454</v>
+        <v>82</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>373</v>
+        <v>453</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>82</v>
@@ -7783,10 +7800,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7797,7 +7814,7 @@
         <v>80</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>82</v>
@@ -7809,19 +7826,19 @@
         <v>82</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="N49" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="O49" t="s" s="2">
         <v>458</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>460</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>82</v>
@@ -7846,13 +7863,13 @@
         <v>82</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>207</v>
+        <v>117</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>82</v>
@@ -7870,13 +7887,13 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>82</v>
@@ -7888,13 +7905,13 @@
         <v>82</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>82</v>
@@ -7919,7 +7936,7 @@
         <v>80</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>82</v>
@@ -7931,15 +7948,17 @@
         <v>82</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>465</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>467</v>
       </c>
@@ -7966,13 +7985,13 @@
         <v>82</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>82</v>
+        <v>215</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>82</v>
+        <v>468</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>82</v>
+        <v>469</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>82</v>
@@ -7996,7 +8015,7 @@
         <v>80</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>82</v>
@@ -8008,13 +8027,13 @@
         <v>82</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>82</v>
+        <v>461</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>82</v>
+        <v>462</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>468</v>
+        <v>380</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>82</v>
@@ -8025,10 +8044,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8051,16 +8070,18 @@
         <v>82</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>217</v>
+        <v>471</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
+      <c r="O51" t="s" s="2">
+        <v>474</v>
+      </c>
       <c r="P51" t="s" s="2">
         <v>82</v>
       </c>
@@ -8108,7 +8129,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8129,10 +8150,10 @@
         <v>82</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>441</v>
+        <v>82</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>82</v>
@@ -8143,10 +8164,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8157,7 +8178,7 @@
         <v>80</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>82</v>
@@ -8166,20 +8187,18 @@
         <v>82</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>474</v>
+        <v>225</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>477</v>
-      </c>
+        <v>478</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>82</v>
@@ -8228,13 +8247,13 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>82</v>
@@ -8249,7 +8268,7 @@
         <v>82</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>478</v>
+        <v>448</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>479</v>
@@ -8369,10 +8388,10 @@
         <v>82</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>82</v>
@@ -8383,10 +8402,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8409,20 +8428,18 @@
         <v>94</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>421</v>
+        <v>488</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>490</v>
-      </c>
+        <v>491</v>
+      </c>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>82</v>
       </c>
@@ -8470,7 +8487,7 @@
         <v>82</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8491,7 +8508,7 @@
         <v>82</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>492</v>
@@ -8519,7 +8536,7 @@
         <v>80</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>82</v>
@@ -8528,19 +8545,23 @@
         <v>82</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>217</v>
+        <v>428</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>218</v>
+        <v>494</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
+        <v>495</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>497</v>
+      </c>
       <c r="P55" t="s" s="2">
         <v>82</v>
       </c>
@@ -8588,19 +8609,19 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>220</v>
+        <v>493</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>82</v>
@@ -8609,10 +8630,10 @@
         <v>82</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>82</v>
+        <v>498</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>221</v>
+        <v>499</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>82</v>
@@ -8623,21 +8644,21 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>138</v>
+        <v>82</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>82</v>
@@ -8649,17 +8670,15 @@
         <v>82</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>139</v>
+        <v>225</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>140</v>
+        <v>226</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>82</v>
@@ -8708,19 +8727,19 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>82</v>
@@ -8732,7 +8751,7 @@
         <v>82</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>82</v>
@@ -8743,14 +8762,14 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>432</v>
+        <v>152</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8763,26 +8782,24 @@
         <v>82</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>433</v>
+        <v>231</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>434</v>
+        <v>232</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>148</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>82</v>
       </c>
@@ -8830,7 +8847,7 @@
         <v>82</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>435</v>
+        <v>234</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -8854,7 +8871,7 @@
         <v>82</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>136</v>
+        <v>229</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>82</v>
@@ -8865,45 +8882,45 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>82</v>
+        <v>439</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="J58" t="s" s="2">
         <v>94</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>192</v>
+        <v>138</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>497</v>
+        <v>440</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>498</v>
+        <v>441</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>499</v>
+        <v>155</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>206</v>
+        <v>156</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>82</v>
@@ -8928,13 +8945,13 @@
         <v>82</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>207</v>
+        <v>82</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>208</v>
+        <v>82</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>209</v>
+        <v>82</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>82</v>
@@ -8952,34 +8969,34 @@
         <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>496</v>
+        <v>442</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>500</v>
+        <v>82</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>212</v>
+        <v>82</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>213</v>
+        <v>136</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>214</v>
+        <v>82</v>
       </c>
       <c r="AP58" t="s" s="2">
         <v>82</v>
@@ -8987,10 +9004,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8998,7 +9015,7 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>93</v>
@@ -9013,19 +9030,19 @@
         <v>94</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>343</v>
+        <v>200</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>345</v>
+        <v>505</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>347</v>
+        <v>214</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>82</v>
@@ -9050,13 +9067,13 @@
         <v>82</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>82</v>
+        <v>215</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>82</v>
+        <v>216</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>82</v>
+        <v>217</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>82</v>
@@ -9074,10 +9091,10 @@
         <v>82</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>93</v>
@@ -9092,27 +9109,27 @@
         <v>82</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>350</v>
+        <v>220</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>351</v>
+        <v>221</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>82</v>
+        <v>222</v>
       </c>
       <c r="AP59" t="s" s="2">
-        <v>352</v>
+        <v>82</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9132,22 +9149,22 @@
         <v>82</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>192</v>
+        <v>350</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>507</v>
+        <v>352</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>82</v>
@@ -9172,13 +9189,13 @@
         <v>82</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>358</v>
+        <v>82</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>359</v>
+        <v>82</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>360</v>
+        <v>82</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>82</v>
@@ -9196,7 +9213,7 @@
         <v>82</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9205,7 +9222,7 @@
         <v>93</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>361</v>
+        <v>82</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>105</v>
@@ -9214,38 +9231,38 @@
         <v>82</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>82</v>
+        <v>511</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>136</v>
+        <v>357</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP60" t="s" s="2">
-        <v>82</v>
+        <v>359</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>364</v>
+        <v>82</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>82</v>
@@ -9257,19 +9274,19 @@
         <v>82</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>365</v>
+        <v>513</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>366</v>
+        <v>514</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>367</v>
+        <v>515</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>82</v>
@@ -9294,13 +9311,13 @@
         <v>82</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>82</v>
@@ -9318,16 +9335,16 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>82</v>
+        <v>368</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>105</v>
@@ -9336,31 +9353,31 @@
         <v>82</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>371</v>
+        <v>82</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>372</v>
+        <v>136</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP61" t="s" s="2">
-        <v>374</v>
+        <v>82</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>82</v>
+        <v>371</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -9379,19 +9396,19 @@
         <v>82</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>83</v>
+        <v>200</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>511</v>
+        <v>372</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>512</v>
+        <v>373</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>424</v>
+        <v>374</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>425</v>
+        <v>375</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>82</v>
@@ -9416,13 +9433,13 @@
         <v>82</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>82</v>
+        <v>365</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>82</v>
+        <v>376</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>82</v>
+        <v>377</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>82</v>
@@ -9440,7 +9457,7 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9458,23 +9475,145 @@
         <v>82</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>82</v>
+        <v>378</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>427</v>
+        <v>379</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>428</v>
+        <v>380</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP62" t="s" s="2">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="63" hidden="true">
+      <c r="A63" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="O63" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="P63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q63" s="2"/>
+      <c r="R63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AO63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP63" t="s" s="2">
         <v>82</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP62">
+  <autoFilter ref="A1:AP63">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9484,7 +9623,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI61">
+  <conditionalFormatting sqref="A2:AI62">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/refs/heads/master/StructureDefinition-ObservationIniciarCuidadorLE.xlsx
+++ b/refs/heads/master/StructureDefinition-ObservationIniciarCuidadorLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-30T19:35:25+00:00</t>
+    <t>2024-05-31T20:01:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-ObservationIniciarCuidadorLE.xlsx
+++ b/refs/heads/master/StructureDefinition-ObservationIniciarCuidadorLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T20:01:16+00:00</t>
+    <t>2024-05-31T20:30:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-ObservationIniciarCuidadorLE.xlsx
+++ b/refs/heads/master/StructureDefinition-ObservationIniciarCuidadorLE.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.1</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T20:30:32+00:00</t>
+    <t>2024-05-31T20:52:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-ObservationIniciarCuidadorLE.xlsx
+++ b/refs/heads/master/StructureDefinition-ObservationIniciarCuidadorLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T20:52:22+00:00</t>
+    <t>2024-06-03T14:23:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-ObservationIniciarCuidadorLE.xlsx
+++ b/refs/heads/master/StructureDefinition-ObservationIniciarCuidadorLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T14:23:07+00:00</t>
+    <t>2024-06-03T14:39:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-ObservationIniciarCuidadorLE.xlsx
+++ b/refs/heads/master/StructureDefinition-ObservationIniciarCuidadorLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T14:39:49+00:00</t>
+    <t>2024-06-04T14:45:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-ObservationIniciarCuidadorLE.xlsx
+++ b/refs/heads/master/StructureDefinition-ObservationIniciarCuidadorLE.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$63</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$62</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2452" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2416" uniqueCount="512">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Observation Iniciar Cuidador LE</t>
+    <t>Cuidador LE</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-04T14:45:33+00:00</t>
+    <t>2024-06-14T16:20:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -444,307 +444,284 @@
     <t>Observation.extension</t>
   </si>
   <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Observation.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>Observation.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Business Identifier for observation</t>
+  </si>
+  <si>
+    <t>A unique identifier assigned to this observation.</t>
+  </si>
+  <si>
+    <t>Allows observations to be distinguished and referenced.</t>
+  </si>
+  <si>
+    <t>Event.identifier</t>
+  </si>
+  <si>
+    <t>OBX.21  For OBX segments from systems without OBX-21 support a combination of ORC/OBR and OBX must be negotiated between trading partners to uniquely identify the OBX segment. Depending on how V2 has been implemented each of these may be an option: 1) OBR-3 + OBX-3 + OBX-4 or 2) OBR-3 + OBR-4 + OBX-3 + OBX-4 or 2) some other way to uniquely ID the OBR/ORC + OBX-3 + OBX-4.</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>Observation.basedOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fulfills
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ServiceRequest)
+</t>
+  </si>
+  <si>
+    <t>Fulfills plan, proposal or order</t>
+  </si>
+  <si>
+    <t>A plan, proposal or order that is fulfilled in whole or in part by this event.  For example, a MedicationRequest may require a patient to have laboratory test performed before  it is dispensed.</t>
+  </si>
+  <si>
+    <t>Allows tracing of authorization for the event and tracking whether proposals/recommendations were acted upon.</t>
+  </si>
+  <si>
+    <t>Event.basedOn</t>
+  </si>
+  <si>
+    <t>ORC</t>
+  </si>
+  <si>
+    <t>.inboundRelationship[typeCode=COMP].source[moodCode=EVN]</t>
+  </si>
+  <si>
+    <t>Observation.partOf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Container
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(MedicationAdministration|MedicationDispense|MedicationStatement|Procedure|Immunization|ImagingStudy)
+</t>
+  </si>
+  <si>
+    <t>Part of referenced event</t>
+  </si>
+  <si>
+    <t>A larger event of which this particular Observation is a component or step.  For example,  an observation as part of a procedure.</t>
+  </si>
+  <si>
+    <t>To link an Observation to an Encounter use `encounter`.  See the  [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below for guidance on referencing another Observation.</t>
+  </si>
+  <si>
+    <t>Event.partOf</t>
+  </si>
+  <si>
+    <t>Varies by domain</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=FLFS].target</t>
+  </si>
+  <si>
+    <t>Observation.status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estado de la observación, por defecto 'final' </t>
+  </si>
+  <si>
+    <t>The status of the result value.</t>
+  </si>
+  <si>
+    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
+  </si>
+  <si>
+    <t>Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
+  </si>
+  <si>
+    <t>final</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Codes providing the status of an observation.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
+  </si>
+  <si>
+    <t>Event.status</t>
+  </si>
+  <si>
+    <t>&lt; 445584004 |Report by finality status|</t>
+  </si>
+  <si>
+    <t>OBX-11</t>
+  </si>
+  <si>
+    <t>status  Amended &amp; Final are differentiated by whether it is the subject of a ControlAct event with a type of "revise"</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>Observation.category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Classification of  type of observation</t>
+  </si>
+  <si>
+    <t>A code that classifies the general type of observation being made.</t>
+  </si>
+  <si>
+    <t>In addition to the required category valueset, this element allows various categorization schemes based on the owner’s definition of the category and effectively multiple categories can be used at once.  The level of granularity is defined by the category concepts in the value set.</t>
+  </si>
+  <si>
+    <t>Used for filtering what observations are retrieved and displayed.</t>
+  </si>
+  <si>
+    <t>Codes for high level observation categories.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>Observation.code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name
+</t>
+  </si>
+  <si>
+    <t>Tipo de observación, por defecto se usará como valor fijo el código de loinc que explicita si un paciente está a cargo de los cuidados de otra persona</t>
+  </si>
+  <si>
+    <t>Describes what was observed. Sometimes this is called the observation "name".</t>
+  </si>
+  <si>
+    <t>*All* code-value and, if present, component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.</t>
+  </si>
+  <si>
+    <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes identifying names of simple observations.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
+  </si>
+  <si>
+    <t>Event.code</t>
+  </si>
+  <si>
+    <t>&lt; 363787002 |Observable entity| OR &lt; 386053000 |Evaluation procedure|</t>
+  </si>
+  <si>
+    <t>OBX-3</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>FiveWs.what[x]</t>
+  </si>
+  <si>
+    <t>116680003 |Is a|</t>
+  </si>
+  <si>
+    <t>Observation.code.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Observation.code.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
 </t>
   </si>
   <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
     <t>open</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Observation.extension:EsCuidador</t>
-  </si>
-  <si>
-    <t>EsCuidador</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/ExtBoolEsCuidador}
-</t>
-  </si>
-  <si>
-    <t>Es cuidador? true | false</t>
-  </si>
-  <si>
-    <t>ExtBool EsCuidador</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>Observation.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>Observation.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Business Identifier for observation</t>
-  </si>
-  <si>
-    <t>A unique identifier assigned to this observation.</t>
-  </si>
-  <si>
-    <t>Allows observations to be distinguished and referenced.</t>
-  </si>
-  <si>
-    <t>Event.identifier</t>
-  </si>
-  <si>
-    <t>OBX.21  For OBX segments from systems without OBX-21 support a combination of ORC/OBR and OBX must be negotiated between trading partners to uniquely identify the OBX segment. Depending on how V2 has been implemented each of these may be an option: 1) OBR-3 + OBX-3 + OBX-4 or 2) OBR-3 + OBR-4 + OBX-3 + OBX-4 or 2) some other way to uniquely ID the OBR/ORC + OBX-3 + OBX-4.</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>Observation.basedOn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fulfills
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ServiceRequest)
-</t>
-  </si>
-  <si>
-    <t>Fulfills plan, proposal or order</t>
-  </si>
-  <si>
-    <t>A plan, proposal or order that is fulfilled in whole or in part by this event.  For example, a MedicationRequest may require a patient to have laboratory test performed before  it is dispensed.</t>
-  </si>
-  <si>
-    <t>Allows tracing of authorization for the event and tracking whether proposals/recommendations were acted upon.</t>
-  </si>
-  <si>
-    <t>Event.basedOn</t>
-  </si>
-  <si>
-    <t>ORC</t>
-  </si>
-  <si>
-    <t>.inboundRelationship[typeCode=COMP].source[moodCode=EVN]</t>
-  </si>
-  <si>
-    <t>Observation.partOf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Container
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(MedicationAdministration|MedicationDispense|MedicationStatement|Procedure|Immunization|ImagingStudy)
-</t>
-  </si>
-  <si>
-    <t>Part of referenced event</t>
-  </si>
-  <si>
-    <t>A larger event of which this particular Observation is a component or step.  For example,  an observation as part of a procedure.</t>
-  </si>
-  <si>
-    <t>To link an Observation to an Encounter use `encounter`.  See the  [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below for guidance on referencing another Observation.</t>
-  </si>
-  <si>
-    <t>Event.partOf</t>
-  </si>
-  <si>
-    <t>Varies by domain</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=FLFS].target</t>
-  </si>
-  <si>
-    <t>Observation.status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estado de la observación, por defecto 'final' </t>
-  </si>
-  <si>
-    <t>The status of the result value.</t>
-  </si>
-  <si>
-    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
-  </si>
-  <si>
-    <t>Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
-  </si>
-  <si>
-    <t>final</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Codes providing the status of an observation.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
-  </si>
-  <si>
-    <t>Event.status</t>
-  </si>
-  <si>
-    <t>&lt; 445584004 |Report by finality status|</t>
-  </si>
-  <si>
-    <t>OBX-11</t>
-  </si>
-  <si>
-    <t>status  Amended &amp; Final are differentiated by whether it is the subject of a ControlAct event with a type of "revise"</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>Observation.category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Classification of  type of observation</t>
-  </si>
-  <si>
-    <t>A code that classifies the general type of observation being made.</t>
-  </si>
-  <si>
-    <t>In addition to the required category valueset, this element allows various categorization schemes based on the owner’s definition of the category and effectively multiple categories can be used at once.  The level of granularity is defined by the category concepts in the value set.</t>
-  </si>
-  <si>
-    <t>Used for filtering what observations are retrieved and displayed.</t>
-  </si>
-  <si>
-    <t>Codes for high level observation categories.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>Observation.code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name
-</t>
-  </si>
-  <si>
-    <t>Tipo de observación, por defecto se usará como valor fijo el código de loinc que explicita si un paciente está a cargo de los cuidados de otra persona</t>
-  </si>
-  <si>
-    <t>Describes what was observed. Sometimes this is called the observation "name".</t>
-  </si>
-  <si>
-    <t>*All* code-value and, if present, component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.</t>
-  </si>
-  <si>
-    <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes identifying names of simple observations.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
-  </si>
-  <si>
-    <t>Event.code</t>
-  </si>
-  <si>
-    <t>&lt; 363787002 |Observable entity| OR &lt; 386053000 |Evaluation procedure|</t>
-  </si>
-  <si>
-    <t>OBX-3</t>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>FiveWs.what[x]</t>
-  </si>
-  <si>
-    <t>116680003 |Is a|</t>
-  </si>
-  <si>
-    <t>Observation.code.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Observation.code.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
     <t>Element.extension</t>
@@ -757,7 +734,7 @@
 </t>
   </si>
   <si>
-    <t>Códigos definidos por un sistema terminológico</t>
+    <t>Code defined by a terminology system</t>
   </si>
   <si>
     <t>A reference to a code defined by a terminology system.</t>
@@ -787,7 +764,7 @@
     <t>Observation.code.coding.system</t>
   </si>
   <si>
-    <t>Sistema terminológico, url/uri/uuid</t>
+    <t>http://loinc.org</t>
   </si>
   <si>
     <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
@@ -799,9 +776,6 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>http://loinc.org</t>
-  </si>
-  <si>
     <t>Coding.system</t>
   </si>
   <si>
@@ -835,7 +809,7 @@
     <t>Observation.code.coding.code</t>
   </si>
   <si>
-    <t>Código definido en un sistema terminológico</t>
+    <t>Symbol in syntax defined by the system</t>
   </si>
   <si>
     <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
@@ -986,11 +960,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/EncounterIniciarLE|https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/EncounterAtenderLE)
 </t>
   </si>
   <si>
-    <t>Healthcare event during which this observation is made</t>
+    <t>Encuentro del cual nace la observación</t>
   </si>
   <si>
     <t>The healthcare event  (e.g. a patient and healthcare provider interaction) during which this observation is made.</t>
@@ -1105,11 +1079,7 @@
     <t>Observation.value[x]</t>
   </si>
   <si>
-    <t>Quantity
-CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
-  </si>
-  <si>
-    <t>Actual result</t>
+    <t>Es cuidador? true | false</t>
   </si>
   <si>
     <t>The information determined as a result of making the observation, if the information has a simple value.</t>
@@ -1605,6 +1575,10 @@
   </si>
   <si>
     <t>Observation.component.value[x]</t>
+  </si>
+  <si>
+    <t>Quantity
+CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
   </si>
   <si>
     <t>Actual component result</t>
@@ -1958,7 +1932,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP63"/>
+  <dimension ref="A1:AP62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1977,7 +1951,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="111.11328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="165.74609375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2985,11 +2959,11 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>82</v>
+        <v>138</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>81</v>
@@ -3004,15 +2978,17 @@
         <v>82</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="N9" s="2"/>
+        <v>141</v>
+      </c>
+      <c r="N9" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>82</v>
@@ -3049,14 +3025,16 @@
         <v>82</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AC9" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD9" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>142</v>
+        <v>82</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>143</v>
@@ -3083,7 +3061,7 @@
         <v>82</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>82</v>
+        <v>136</v>
       </c>
       <c r="AO9" t="s" s="2">
         <v>82</v>
@@ -3097,41 +3075,43 @@
         <v>145</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>146</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>82</v>
+        <v>138</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H10" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I10" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="I10" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="J10" t="s" s="2">
         <v>82</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="N10" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="O10" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="M10" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>82</v>
       </c>
@@ -3179,7 +3159,7 @@
         <v>82</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>80</v>
@@ -3188,7 +3168,7 @@
         <v>81</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>150</v>
+        <v>82</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>144</v>
@@ -3203,7 +3183,7 @@
         <v>82</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>82</v>
+        <v>136</v>
       </c>
       <c r="AO10" t="s" s="2">
         <v>82</v>
@@ -3214,14 +3194,14 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>152</v>
+        <v>82</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -3234,25 +3214,23 @@
         <v>82</v>
       </c>
       <c r="I11" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J11" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="J11" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="K11" t="s" s="2">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="L11" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M11" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" s="2"/>
+      <c r="O11" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>156</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>82</v>
@@ -3301,7 +3279,7 @@
         <v>82</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>80</v>
@@ -3313,22 +3291,22 @@
         <v>82</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>82</v>
+        <v>155</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>82</v>
+        <v>156</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>82</v>
+        <v>158</v>
       </c>
       <c r="AP11" t="s" s="2">
         <v>82</v>
@@ -3336,14 +3314,14 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>82</v>
+        <v>160</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -3362,17 +3340,17 @@
         <v>94</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>82</v>
@@ -3421,7 +3399,7 @@
         <v>82</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>80</v>
@@ -3436,19 +3414,19 @@
         <v>105</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>166</v>
+        <v>82</v>
       </c>
       <c r="AP12" t="s" s="2">
         <v>82</v>
@@ -3456,14 +3434,14 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -3482,18 +3460,18 @@
         <v>94</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="N13" s="2"/>
-      <c r="O13" t="s" s="2">
         <v>172</v>
       </c>
+      <c r="N13" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>82</v>
       </c>
@@ -3541,7 +3519,7 @@
         <v>82</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>80</v>
@@ -3556,16 +3534,16 @@
         <v>105</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>82</v>
@@ -3576,44 +3554,46 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>177</v>
+        <v>82</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>94</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="N14" t="s" s="2">
+      <c r="O14" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>82</v>
       </c>
@@ -3622,7 +3602,7 @@
         <v>82</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>82</v>
+        <v>182</v>
       </c>
       <c r="T14" t="s" s="2">
         <v>82</v>
@@ -3637,13 +3617,13 @@
         <v>82</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>82</v>
+        <v>183</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>82</v>
+        <v>184</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>82</v>
+        <v>185</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>82</v>
@@ -3661,13 +3641,13 @@
         <v>82</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>82</v>
@@ -3676,19 +3656,19 @@
         <v>105</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>82</v>
+        <v>187</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>82</v>
+        <v>190</v>
       </c>
       <c r="AP14" t="s" s="2">
         <v>82</v>
@@ -3696,10 +3676,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3707,34 +3687,34 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>113</v>
+        <v>192</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>82</v>
@@ -3744,7 +3724,7 @@
         <v>82</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>190</v>
+        <v>82</v>
       </c>
       <c r="T15" t="s" s="2">
         <v>82</v>
@@ -3759,37 +3739,37 @@
         <v>82</v>
       </c>
       <c r="X15" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="Y15" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="Z15" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF15" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="Y15" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="Z15" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>185</v>
-      </c>
       <c r="AG15" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>82</v>
@@ -3798,19 +3778,19 @@
         <v>105</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>194</v>
+        <v>82</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>195</v>
+        <v>82</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>196</v>
+        <v>82</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>82</v>
@@ -3818,45 +3798,45 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>82</v>
+        <v>202</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>82</v>
@@ -3881,13 +3861,13 @@
         <v>82</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>117</v>
+        <v>207</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>82</v>
@@ -3905,13 +3885,13 @@
         <v>82</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>82</v>
@@ -3920,66 +3900,62 @@
         <v>105</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>82</v>
+        <v>210</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>82</v>
+        <v>211</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>82</v>
+        <v>212</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="AP16" t="s" s="2">
-        <v>82</v>
+        <v>215</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>210</v>
+        <v>82</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>93</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>214</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>82</v>
       </c>
@@ -4003,13 +3979,13 @@
         <v>82</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>215</v>
+        <v>82</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>216</v>
+        <v>82</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>217</v>
+        <v>82</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>82</v>
@@ -4027,10 +4003,10 @@
         <v>82</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>93</v>
@@ -4039,44 +4015,44 @@
         <v>82</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>218</v>
+        <v>82</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>219</v>
+        <v>82</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>220</v>
+        <v>82</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>221</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>222</v>
+        <v>82</v>
       </c>
       <c r="AP17" t="s" s="2">
-        <v>223</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>82</v>
+        <v>138</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>82</v>
@@ -4088,15 +4064,17 @@
         <v>82</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>225</v>
+        <v>139</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>226</v>
+        <v>140</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>223</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>82</v>
@@ -4133,31 +4111,31 @@
         <v>82</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>82</v>
+        <v>224</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>82</v>
+        <v>225</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>82</v>
+        <v>226</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>82</v>
@@ -4169,7 +4147,7 @@
         <v>82</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>82</v>
@@ -4180,44 +4158,46 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>152</v>
+        <v>82</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>138</v>
+        <v>229</v>
       </c>
       <c r="L19" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="N19" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="O19" s="2"/>
+      <c r="O19" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="P19" t="s" s="2">
         <v>82</v>
       </c>
@@ -4253,16 +4233,16 @@
         <v>82</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>141</v>
+        <v>82</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>233</v>
+        <v>82</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>142</v>
+        <v>82</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>234</v>
@@ -4277,7 +4257,7 @@
         <v>82</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>82</v>
@@ -4286,10 +4266,10 @@
         <v>82</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>82</v>
+        <v>235</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>82</v>
@@ -4300,10 +4280,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4314,7 +4294,7 @@
         <v>80</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>82</v>
@@ -4323,23 +4303,19 @@
         <v>82</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>240</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>82</v>
       </c>
@@ -4387,19 +4363,19 @@
         <v>82</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>241</v>
+        <v>220</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>82</v>
@@ -4408,10 +4384,10 @@
         <v>82</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>242</v>
+        <v>82</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>82</v>
@@ -4422,21 +4398,21 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>82</v>
+        <v>138</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>82</v>
@@ -4448,15 +4424,17 @@
         <v>82</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>225</v>
+        <v>139</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>226</v>
+        <v>140</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>223</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>82</v>
@@ -4493,31 +4471,31 @@
         <v>82</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>82</v>
+        <v>224</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>82</v>
+        <v>225</v>
       </c>
       <c r="AD21" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>82</v>
+        <v>226</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>82</v>
@@ -4529,7 +4507,7 @@
         <v>82</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>82</v>
@@ -4540,21 +4518,21 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>152</v>
+        <v>82</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>82</v>
@@ -4563,21 +4541,23 @@
         <v>82</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="O22" s="2"/>
+        <v>242</v>
+      </c>
+      <c r="O22" t="s" s="2">
+        <v>243</v>
+      </c>
       <c r="P22" t="s" s="2">
         <v>82</v>
       </c>
@@ -4586,7 +4566,7 @@
         <v>82</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>82</v>
+        <v>240</v>
       </c>
       <c r="T22" t="s" s="2">
         <v>82</v>
@@ -4613,31 +4593,31 @@
         <v>82</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>141</v>
+        <v>82</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>233</v>
+        <v>82</v>
       </c>
       <c r="AD22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>142</v>
+        <v>82</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>82</v>
@@ -4646,10 +4626,10 @@
         <v>82</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>82</v>
+        <v>245</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>82</v>
@@ -4660,10 +4640,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4686,20 +4666,18 @@
         <v>94</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>107</v>
+        <v>217</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="O23" t="s" s="2">
         <v>250</v>
       </c>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>82</v>
       </c>
@@ -4708,46 +4686,46 @@
         <v>82</v>
       </c>
       <c r="S23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF23" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="T23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -4768,10 +4746,10 @@
         <v>82</v>
       </c>
       <c r="AM23" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AN23" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>82</v>
@@ -4782,10 +4760,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4793,13 +4771,13 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>93</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>82</v>
@@ -4808,18 +4786,18 @@
         <v>94</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>225</v>
+        <v>113</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" s="2"/>
+      <c r="O24" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="N24" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>82</v>
       </c>
@@ -4828,7 +4806,7 @@
         <v>82</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>82</v>
+        <v>258</v>
       </c>
       <c r="T24" t="s" s="2">
         <v>82</v>
@@ -4928,7 +4906,7 @@
         <v>94</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>113</v>
+        <v>217</v>
       </c>
       <c r="L25" t="s" s="2">
         <v>263</v>
@@ -4948,46 +4926,46 @@
         <v>82</v>
       </c>
       <c r="S25" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T25" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U25" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V25" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W25" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X25" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF25" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="T25" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U25" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V25" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W25" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X25" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y25" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z25" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -5008,10 +4986,10 @@
         <v>82</v>
       </c>
       <c r="AM25" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="AN25" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>82</v>
@@ -5022,10 +5000,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5048,7 +5026,7 @@
         <v>94</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>225</v>
+        <v>270</v>
       </c>
       <c r="L26" t="s" s="2">
         <v>271</v>
@@ -5056,9 +5034,11 @@
       <c r="M26" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="N26" s="2"/>
+      <c r="N26" t="s" s="2">
+        <v>273</v>
+      </c>
       <c r="O26" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>82</v>
@@ -5107,7 +5087,7 @@
         <v>82</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -5128,10 +5108,10 @@
         <v>82</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>82</v>
@@ -5142,10 +5122,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5168,7 +5148,7 @@
         <v>94</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>278</v>
+        <v>217</v>
       </c>
       <c r="L27" t="s" s="2">
         <v>279</v>
@@ -5275,13 +5255,13 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>93</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>82</v>
@@ -5290,19 +5270,19 @@
         <v>94</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>225</v>
+        <v>287</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>82</v>
@@ -5351,7 +5331,7 @@
         <v>82</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
@@ -5366,19 +5346,19 @@
         <v>105</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>82</v>
+        <v>292</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>82</v>
+        <v>295</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>82</v>
@@ -5386,10 +5366,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5397,13 +5377,13 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>82</v>
@@ -5412,20 +5392,18 @@
         <v>94</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>299</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>82</v>
       </c>
@@ -5473,13 +5451,13 @@
         <v>82</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>82</v>
@@ -5488,19 +5466,19 @@
         <v>105</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>300</v>
+        <v>82</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM29" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AN29" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="AN29" t="s" s="2">
-        <v>302</v>
-      </c>
       <c r="AO29" t="s" s="2">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="AP29" t="s" s="2">
         <v>82</v>
@@ -5508,24 +5486,24 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>82</v>
+        <v>303</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>82</v>
@@ -5534,18 +5512,20 @@
         <v>94</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="N30" t="s" s="2">
+      <c r="O30" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>82</v>
       </c>
@@ -5593,13 +5573,13 @@
         <v>82</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>82</v>
@@ -5608,19 +5588,19 @@
         <v>105</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>82</v>
+        <v>309</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>220</v>
+        <v>310</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="AP30" t="s" s="2">
         <v>82</v>
@@ -5628,14 +5608,14 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5654,19 +5634,19 @@
         <v>94</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>82</v>
@@ -5715,7 +5695,7 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5730,19 +5710,19 @@
         <v>105</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="AP31" t="s" s="2">
         <v>82</v>
@@ -5750,14 +5730,14 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>322</v>
+        <v>82</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5776,20 +5756,18 @@
         <v>94</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>327</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>82</v>
       </c>
@@ -5837,7 +5815,7 @@
         <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -5852,7 +5830,7 @@
         <v>105</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>328</v>
+        <v>82</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>82</v>
@@ -5886,7 +5864,7 @@
         <v>80</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>82</v>
@@ -5906,10 +5884,10 @@
       <c r="M33" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="N33" t="s" s="2">
+      <c r="N33" s="2"/>
+      <c r="O33" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>82</v>
       </c>
@@ -5963,7 +5941,7 @@
         <v>80</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>82</v>
@@ -5972,19 +5950,19 @@
         <v>105</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>82</v>
+        <v>337</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AP33" t="s" s="2">
         <v>82</v>
@@ -5992,10 +5970,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6003,13 +5981,13 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>82</v>
@@ -6018,7 +5996,7 @@
         <v>94</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>341</v>
+        <v>270</v>
       </c>
       <c r="L34" t="s" s="2">
         <v>342</v>
@@ -6026,9 +6004,11 @@
       <c r="M34" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="N34" s="2"/>
+      <c r="N34" t="s" s="2">
+        <v>344</v>
+      </c>
       <c r="O34" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>82</v>
@@ -6077,45 +6057,45 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>82</v>
+        <v>346</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>105</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>345</v>
+        <v>82</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>82</v>
+        <v>347</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>348</v>
+        <v>82</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>82</v>
+        <v>350</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6135,22 +6115,22 @@
         <v>82</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>350</v>
+        <v>192</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>82</v>
@@ -6175,13 +6155,13 @@
         <v>82</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>82</v>
+        <v>356</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>82</v>
+        <v>357</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>82</v>
+        <v>358</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>82</v>
@@ -6199,7 +6179,7 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6208,7 +6188,7 @@
         <v>93</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>105</v>
@@ -6217,38 +6197,38 @@
         <v>82</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>356</v>
+        <v>82</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>357</v>
+        <v>136</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP35" t="s" s="2">
-        <v>359</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>82</v>
+        <v>362</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>82</v>
@@ -6260,19 +6240,19 @@
         <v>82</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>82</v>
@@ -6297,13 +6277,13 @@
         <v>82</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>82</v>
@@ -6321,16 +6301,16 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>368</v>
+        <v>82</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>105</v>
@@ -6339,31 +6319,31 @@
         <v>82</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>82</v>
+        <v>369</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>136</v>
+        <v>370</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>82</v>
+        <v>372</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>371</v>
+        <v>82</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -6382,19 +6362,19 @@
         <v>82</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>200</v>
+        <v>374</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>82</v>
@@ -6419,13 +6399,13 @@
         <v>82</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>365</v>
+        <v>82</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>376</v>
+        <v>82</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>377</v>
+        <v>82</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>82</v>
@@ -6443,7 +6423,7 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6461,7 +6441,7 @@
         <v>82</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>378</v>
+        <v>82</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>379</v>
@@ -6473,15 +6453,15 @@
         <v>82</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>381</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6492,7 +6472,7 @@
         <v>80</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>82</v>
@@ -6504,20 +6484,18 @@
         <v>82</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="M38" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>387</v>
-      </c>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>82</v>
       </c>
@@ -6541,13 +6519,13 @@
         <v>82</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>82</v>
+        <v>207</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>82</v>
+        <v>385</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>82</v>
+        <v>386</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>82</v>
@@ -6565,13 +6543,13 @@
         <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>82</v>
@@ -6583,7 +6561,7 @@
         <v>82</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>82</v>
+        <v>387</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>388</v>
@@ -6595,15 +6573,15 @@
         <v>82</v>
       </c>
       <c r="AP38" t="s" s="2">
-        <v>82</v>
+        <v>390</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6626,18 +6604,20 @@
         <v>82</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="O39" s="2"/>
+        <v>394</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>395</v>
+      </c>
       <c r="P39" t="s" s="2">
         <v>82</v>
       </c>
@@ -6661,13 +6641,13 @@
         <v>82</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>82</v>
@@ -6685,7 +6665,7 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6703,19 +6683,19 @@
         <v>82</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>396</v>
+        <v>82</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP39" t="s" s="2">
-        <v>399</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" hidden="true">
@@ -6746,20 +6726,18 @@
         <v>82</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>200</v>
+        <v>401</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="O40" t="s" s="2">
         <v>404</v>
       </c>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>82</v>
       </c>
@@ -6783,13 +6761,13 @@
         <v>82</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>215</v>
+        <v>82</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>405</v>
+        <v>82</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>406</v>
+        <v>82</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>82</v>
@@ -6825,19 +6803,19 @@
         <v>82</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>82</v>
+        <v>405</v>
       </c>
       <c r="AM40" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AN40" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="AN40" t="s" s="2">
+      <c r="AO40" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP40" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="AO40" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP40" t="s" s="2">
-        <v>82</v>
       </c>
     </row>
     <row r="41" hidden="true">
@@ -6976,7 +6954,7 @@
         <v>80</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>82</v>
@@ -6999,7 +6977,9 @@
       <c r="N42" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="O42" s="2"/>
+      <c r="O42" t="s" s="2">
+        <v>423</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>82</v>
       </c>
@@ -7053,31 +7033,31 @@
         <v>80</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>105</v>
+        <v>424</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>423</v>
+        <v>82</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP42" t="s" s="2">
-        <v>426</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" hidden="true">
@@ -7096,7 +7076,7 @@
         <v>80</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>82</v>
@@ -7108,20 +7088,16 @@
         <v>82</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>428</v>
+        <v>217</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>429</v>
+        <v>218</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>432</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>82</v>
       </c>
@@ -7169,19 +7145,19 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>427</v>
+        <v>220</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>433</v>
+        <v>82</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>82</v>
@@ -7190,10 +7166,10 @@
         <v>82</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>434</v>
+        <v>82</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>435</v>
+        <v>221</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>82</v>
@@ -7204,21 +7180,21 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>82</v>
+        <v>138</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>82</v>
@@ -7230,15 +7206,17 @@
         <v>82</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>225</v>
+        <v>139</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>226</v>
+        <v>140</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>223</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>82</v>
@@ -7287,19 +7265,19 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>82</v>
@@ -7311,7 +7289,7 @@
         <v>82</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>82</v>
@@ -7322,14 +7300,14 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>152</v>
+        <v>430</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -7342,24 +7320,26 @@
         <v>82</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>231</v>
+        <v>431</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>232</v>
+        <v>432</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="O45" s="2"/>
+        <v>142</v>
+      </c>
+      <c r="O45" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="P45" t="s" s="2">
         <v>82</v>
       </c>
@@ -7407,7 +7387,7 @@
         <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>234</v>
+        <v>433</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7431,7 +7411,7 @@
         <v>82</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>229</v>
+        <v>136</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>82</v>
@@ -7442,46 +7422,42 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>439</v>
+        <v>82</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>138</v>
+        <v>435</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>156</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>82</v>
       </c>
@@ -7529,19 +7505,19 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>82</v>
+        <v>438</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>82</v>
@@ -7550,10 +7526,10 @@
         <v>82</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>82</v>
+        <v>439</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>136</v>
+        <v>440</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>82</v>
@@ -7564,10 +7540,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7590,13 +7566,13 @@
         <v>82</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7647,7 +7623,7 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7656,7 +7632,7 @@
         <v>93</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>105</v>
@@ -7668,10 +7644,10 @@
         <v>82</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>82</v>
@@ -7682,10 +7658,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7708,16 +7684,20 @@
         <v>82</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>444</v>
+        <v>192</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
+        <v>447</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>449</v>
+      </c>
       <c r="P48" t="s" s="2">
         <v>82</v>
       </c>
@@ -7741,13 +7721,13 @@
         <v>82</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>82</v>
+        <v>117</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>82</v>
+        <v>450</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>82</v>
+        <v>451</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>82</v>
@@ -7765,7 +7745,7 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7774,7 +7754,7 @@
         <v>93</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>447</v>
+        <v>82</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>105</v>
@@ -7783,13 +7763,13 @@
         <v>82</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>82</v>
+        <v>452</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>453</v>
+        <v>371</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>82</v>
@@ -7814,7 +7794,7 @@
         <v>80</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>82</v>
@@ -7826,7 +7806,7 @@
         <v>82</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="L49" t="s" s="2">
         <v>455</v>
@@ -7863,7 +7843,7 @@
         <v>82</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>117</v>
+        <v>207</v>
       </c>
       <c r="Y49" t="s" s="2">
         <v>459</v>
@@ -7893,7 +7873,7 @@
         <v>80</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>82</v>
@@ -7905,13 +7885,13 @@
         <v>82</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>82</v>
@@ -7922,10 +7902,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7936,7 +7916,7 @@
         <v>80</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>82</v>
@@ -7948,19 +7928,17 @@
         <v>82</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>200</v>
+        <v>462</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" s="2"/>
+      <c r="O50" t="s" s="2">
         <v>465</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>467</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>82</v>
@@ -7985,13 +7963,13 @@
         <v>82</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>215</v>
+        <v>82</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>468</v>
+        <v>82</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>469</v>
+        <v>82</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>82</v>
@@ -8009,13 +7987,13 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>82</v>
@@ -8027,13 +8005,13 @@
         <v>82</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>461</v>
+        <v>82</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>462</v>
+        <v>82</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>380</v>
+        <v>466</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>82</v>
@@ -8044,10 +8022,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8070,18 +8048,16 @@
         <v>82</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>471</v>
+        <v>217</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="N51" s="2"/>
-      <c r="O51" t="s" s="2">
-        <v>474</v>
-      </c>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>82</v>
       </c>
@@ -8129,7 +8105,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8150,10 +8126,10 @@
         <v>82</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>82</v>
+        <v>439</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>82</v>
@@ -8164,10 +8140,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8178,7 +8154,7 @@
         <v>80</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>82</v>
@@ -8187,18 +8163,20 @@
         <v>82</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>225</v>
+        <v>472</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>474</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>475</v>
+      </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>82</v>
@@ -8247,13 +8225,13 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>82</v>
@@ -8268,10 +8246,10 @@
         <v>82</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>448</v>
+        <v>476</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>82</v>
@@ -8282,10 +8260,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8308,16 +8286,16 @@
         <v>94</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>482</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>484</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8367,7 +8345,7 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8388,10 +8366,10 @@
         <v>82</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>82</v>
@@ -8402,10 +8380,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8428,18 +8406,20 @@
         <v>94</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="O54" t="s" s="2">
         <v>488</v>
       </c>
-      <c r="L54" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>82</v>
       </c>
@@ -8487,7 +8467,7 @@
         <v>82</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8508,10 +8488,10 @@
         <v>82</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>82</v>
@@ -8522,10 +8502,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8536,7 +8516,7 @@
         <v>80</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>82</v>
@@ -8545,23 +8525,19 @@
         <v>82</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>428</v>
+        <v>217</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>494</v>
+        <v>218</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>497</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>82</v>
       </c>
@@ -8609,19 +8585,19 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>493</v>
+        <v>220</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>82</v>
@@ -8630,10 +8606,10 @@
         <v>82</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>498</v>
+        <v>82</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>499</v>
+        <v>221</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>82</v>
@@ -8644,21 +8620,21 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>82</v>
+        <v>138</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>82</v>
@@ -8670,15 +8646,17 @@
         <v>82</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>225</v>
+        <v>139</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>226</v>
+        <v>140</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>223</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>82</v>
@@ -8727,19 +8705,19 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>82</v>
@@ -8751,7 +8729,7 @@
         <v>82</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>82</v>
@@ -8762,14 +8740,14 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>152</v>
+        <v>430</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8782,24 +8760,26 @@
         <v>82</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>231</v>
+        <v>431</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>232</v>
+        <v>432</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="O57" s="2"/>
+        <v>142</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="P57" t="s" s="2">
         <v>82</v>
       </c>
@@ -8847,7 +8827,7 @@
         <v>82</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>234</v>
+        <v>433</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -8871,7 +8851,7 @@
         <v>82</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>229</v>
+        <v>136</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>82</v>
@@ -8882,45 +8862,45 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>439</v>
+        <v>82</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="J58" t="s" s="2">
         <v>94</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>138</v>
+        <v>192</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>440</v>
+        <v>495</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>441</v>
+        <v>496</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>155</v>
+        <v>497</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>156</v>
+        <v>206</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>82</v>
@@ -8945,13 +8925,13 @@
         <v>82</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>82</v>
+        <v>207</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>82</v>
+        <v>208</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>82</v>
+        <v>209</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>82</v>
@@ -8969,34 +8949,34 @@
         <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>442</v>
+        <v>494</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>82</v>
+        <v>498</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>82</v>
+        <v>212</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>136</v>
+        <v>213</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>82</v>
+        <v>214</v>
       </c>
       <c r="AP58" t="s" s="2">
         <v>82</v>
@@ -9004,10 +8984,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9015,7 +8995,7 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>93</v>
@@ -9030,19 +9010,19 @@
         <v>94</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>505</v>
+        <v>343</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>214</v>
+        <v>345</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>82</v>
@@ -9067,13 +9047,13 @@
         <v>82</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>215</v>
+        <v>82</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>216</v>
+        <v>82</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>217</v>
+        <v>82</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>82</v>
@@ -9091,10 +9071,10 @@
         <v>82</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>93</v>
@@ -9109,27 +9089,27 @@
         <v>82</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>220</v>
+        <v>348</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>221</v>
+        <v>349</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>222</v>
+        <v>82</v>
       </c>
       <c r="AP59" t="s" s="2">
-        <v>82</v>
+        <v>350</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9149,22 +9129,22 @@
         <v>82</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>350</v>
+        <v>192</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>352</v>
+        <v>506</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>82</v>
@@ -9189,13 +9169,13 @@
         <v>82</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>82</v>
+        <v>356</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>82</v>
+        <v>357</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>82</v>
+        <v>358</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>82</v>
@@ -9213,7 +9193,7 @@
         <v>82</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9222,7 +9202,7 @@
         <v>93</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>82</v>
+        <v>359</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>105</v>
@@ -9231,38 +9211,38 @@
         <v>82</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>511</v>
+        <v>82</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>357</v>
+        <v>136</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP60" t="s" s="2">
-        <v>359</v>
+        <v>82</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>82</v>
+        <v>362</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>82</v>
@@ -9274,19 +9254,19 @@
         <v>82</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>513</v>
+        <v>363</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>514</v>
+        <v>364</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>515</v>
+        <v>365</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>82</v>
@@ -9311,13 +9291,13 @@
         <v>82</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>82</v>
@@ -9335,16 +9315,16 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>368</v>
+        <v>82</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>105</v>
@@ -9353,31 +9333,31 @@
         <v>82</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>82</v>
+        <v>369</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>136</v>
+        <v>370</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP61" t="s" s="2">
-        <v>82</v>
+        <v>372</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>371</v>
+        <v>82</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -9396,19 +9376,19 @@
         <v>82</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>200</v>
+        <v>83</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>372</v>
+        <v>510</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>373</v>
+        <v>511</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>374</v>
+        <v>422</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>375</v>
+        <v>423</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>82</v>
@@ -9433,13 +9413,13 @@
         <v>82</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>365</v>
+        <v>82</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>376</v>
+        <v>82</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>377</v>
+        <v>82</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>82</v>
@@ -9457,7 +9437,7 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9475,145 +9455,23 @@
         <v>82</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>378</v>
+        <v>82</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>379</v>
+        <v>425</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>380</v>
+        <v>426</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP62" t="s" s="2">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="63" hidden="true">
-      <c r="A63" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="B63" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="C63" s="2"/>
-      <c r="D63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E63" s="2"/>
-      <c r="F63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G63" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K63" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="P63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q63" s="2"/>
-      <c r="R63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="AO63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP63" t="s" s="2">
         <v>82</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP63">
+  <autoFilter ref="A1:AP62">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9623,7 +9481,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI62">
+  <conditionalFormatting sqref="A2:AI61">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/refs/heads/master/StructureDefinition-ObservationIniciarCuidadorLE.xlsx
+++ b/refs/heads/master/StructureDefinition-ObservationIniciarCuidadorLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-14T16:20:30+00:00</t>
+    <t>2024-06-14T18:56:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-ObservationIniciarCuidadorLE.xlsx
+++ b/refs/heads/master/StructureDefinition-ObservationIniciarCuidadorLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-14T18:56:59+00:00</t>
+    <t>2024-06-18T19:34:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-ObservationIniciarCuidadorLE.xlsx
+++ b/refs/heads/master/StructureDefinition-ObservationIniciarCuidadorLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-18T19:34:09+00:00</t>
+    <t>2024-06-18T20:03:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-ObservationIniciarCuidadorLE.xlsx
+++ b/refs/heads/master/StructureDefinition-ObservationIniciarCuidadorLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-18T20:03:27+00:00</t>
+    <t>2024-06-19T19:58:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-ObservationIniciarCuidadorLE.xlsx
+++ b/refs/heads/master/StructureDefinition-ObservationIniciarCuidadorLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T19:58:24+00:00</t>
+    <t>2024-06-19T20:13:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-ObservationIniciarCuidadorLE.xlsx
+++ b/refs/heads/master/StructureDefinition-ObservationIniciarCuidadorLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T20:13:08+00:00</t>
+    <t>2024-06-21T14:59:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-ObservationIniciarCuidadorLE.xlsx
+++ b/refs/heads/master/StructureDefinition-ObservationIniciarCuidadorLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T14:59:52+00:00</t>
+    <t>2024-06-21T15:26:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-ObservationIniciarCuidadorLE.xlsx
+++ b/refs/heads/master/StructureDefinition-ObservationIniciarCuidadorLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T15:26:57+00:00</t>
+    <t>2024-06-21T18:16:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-ObservationIniciarCuidadorLE.xlsx
+++ b/refs/heads/master/StructureDefinition-ObservationIniciarCuidadorLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T18:16:33+00:00</t>
+    <t>2024-06-21T21:35:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-ObservationIniciarCuidadorLE.xlsx
+++ b/refs/heads/master/StructureDefinition-ObservationIniciarCuidadorLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T21:35:59+00:00</t>
+    <t>2024-06-24T21:09:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-ObservationIniciarCuidadorLE.xlsx
+++ b/refs/heads/master/StructureDefinition-ObservationIniciarCuidadorLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-24T21:09:26+00:00</t>
+    <t>2024-06-27T13:53:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-ObservationIniciarCuidadorLE.xlsx
+++ b/refs/heads/master/StructureDefinition-ObservationIniciarCuidadorLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-27T13:53:42+00:00</t>
+    <t>2024-06-28T19:11:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
